--- a/Thiết Kế/TestCase.xlsx
+++ b/Thiết Kế/TestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971498C2-9607-49CE-BBFA-245BB2C0FA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF2D1C-39B7-4A03-964C-F7C676F1A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>CASE</t>
   </si>
@@ -109,9 +109,6 @@
     <t xml:space="preserve">Chuyển về trang chủ </t>
   </si>
   <si>
-    <t>Lấy hết tất cả bài tuyển dụng</t>
-  </si>
-  <si>
     <t>tuxuanbui1111@gmail.com</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Hiển thị đầy đủ thông tin cá nhân của người dùng</t>
   </si>
   <si>
-    <t>hoàn thành 80%, thông tin vẫn còn thiếu.</t>
-  </si>
-  <si>
     <t>Quản lý bài đăng</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>Xem chi tiết bài tuyển dụng</t>
+  </si>
+  <si>
+    <t>60% api, giao diện</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -331,6 +331,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -614,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F33"/>
+  <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,8 +670,8 @@
       <c r="E4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>29</v>
+      <c r="F4" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -676,11 +679,11 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="17">
         <v>1</v>
@@ -748,33 +751,29 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -782,341 +781,358 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>2.6</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>3.3</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>5.4</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="F26" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
         <v>6</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <v>6.3</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
         <v>6.6</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
+      <c r="F31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
         <v>7</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
+      <c r="E33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
         <v>7.2</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{D74B72CC-29B9-4FED-85BB-C08F8AC1936D}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{4F02AACF-4B0A-439C-99E5-DBB7D01BF646}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
